--- a/Gestion/Proposition.xlsx
+++ b/Gestion/Proposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC5A2E5-7B4A-4074-8960-B7F4291C671A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC32A48-C057-495E-908C-556843D14742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <r>
       <t>Es</t>
@@ -174,12 +174,15 @@
   <si>
     <t>apres 8 mois local est plus rentable</t>
   </si>
+  <si>
+    <t>Trouver le prix PAAS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +214,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFACB9CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -591,6 +605,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930823E5-48B9-4EFD-9FC7-6E627D506754}">
   <dimension ref="C10:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,11 +993,11 @@
         <v>2</v>
       </c>
       <c r="E14" s="27">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F14" s="27">
         <f>D14*E14</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1056,11 +1074,11 @@
         <v>10</v>
       </c>
       <c r="D19" s="27">
-        <f>$I$10</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="E19" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F19" s="27">
         <f>D19*E19</f>
@@ -1090,7 +1108,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="31">
         <f>SUM(F14:F21)</f>
-        <v>1030</v>
+        <v>1330</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1299,7 +1317,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="31">
         <f>SUM(F22,F27,F35)</f>
-        <v>48730</v>
+        <v>49030</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1343,11 +1361,11 @@
         <v>2</v>
       </c>
       <c r="E44" s="27">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F44" s="27">
         <f>D44*E44</f>
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1449,7 +1467,7 @@
       <c r="E51" s="22"/>
       <c r="F51" s="31">
         <f>SUM(F44:F50)</f>
-        <v>1630</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1651,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="31">
         <f>SUM(F51,F56,F63)</f>
-        <v>46330</v>
+        <v>46630</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1676,11 +1694,11 @@
         <v>2</v>
       </c>
       <c r="E75" s="27">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F75" s="27">
         <f>D75*E75</f>
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1782,7 +1800,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="31">
         <f>SUM(F75:F81)</f>
-        <v>1010</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1822,12 +1840,15 @@
         <f>I12</f>
         <v>8</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="42">
         <v>20</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" ref="F85:F86" si="6">D85*E85</f>
         <v>160</v>
+      </c>
+      <c r="H85" s="43" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1971,7 +1992,7 @@
       <c r="E95" s="24"/>
       <c r="F95" s="31">
         <f>SUM(F82,F87,F94)</f>
-        <v>45870</v>
+        <v>46290</v>
       </c>
     </row>
   </sheetData>

--- a/Gestion/Proposition.xlsx
+++ b/Gestion/Proposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC32A48-C057-495E-908C-556843D14742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6460A8-D2E6-4D1F-A947-56AAD6625F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <t>apres 8 mois local est plus rentable</t>
   </si>
   <si>
-    <t>Trouver le prix PAAS</t>
+    <t>Trouver le prix PAAS/mois</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="C10:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gestion/Proposition.xlsx
+++ b/Gestion/Proposition.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6460A8-D2E6-4D1F-A947-56AAD6625F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49137B19-482F-4CE7-A1AC-014B7E7D2FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <r>
       <t>Es</t>
@@ -112,12 +113,6 @@
     <t>Programmation et implémentation</t>
   </si>
   <si>
-    <t>Test et amélioration</t>
-  </si>
-  <si>
-    <t>Fabrication du robot</t>
-  </si>
-  <si>
     <t>Grand total ($)</t>
   </si>
   <si>
@@ -176,12 +171,31 @@
   </si>
   <si>
     <t>Trouver le prix PAAS/mois</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>VAN cloud</t>
+  </si>
+  <si>
+    <t>Tests et améliorations</t>
+  </si>
+  <si>
+    <t>total VAN ($)</t>
+  </si>
+  <si>
+    <t>total VAN($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -524,42 +538,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -596,19 +574,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930823E5-48B9-4EFD-9FC7-6E627D506754}">
-  <dimension ref="C10:I95"/>
+  <dimension ref="C10:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,34 +957,34 @@
   <sheetData>
     <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="38"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -980,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -988,16 +1006,16 @@
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="15">
         <f>$I$10</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="27">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
         <v>250</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="15">
         <f>D14*E14</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1005,33 +1023,33 @@
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="15">
         <f>$I$10/2</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
         <v>500</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="15">
         <f t="shared" ref="F15" si="0">D15*E15</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="27">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15">
         <f>$I$10/2</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="27">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
         <v>80</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="15">
         <f>D16*E16</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1039,16 +1057,16 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="15">
         <f>$I$10/2</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15">
         <v>100</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="15">
         <f>D17*E17</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1056,16 +1074,16 @@
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="15">
         <f>$I$10</f>
-        <v>2</v>
-      </c>
-      <c r="E18" s="28">
+        <v>4</v>
+      </c>
+      <c r="E18" s="16">
         <v>25</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="15">
         <f>D18*E18</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1073,14 +1091,14 @@
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="15">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="17">
         <v>100</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="15">
         <f>D19*E19</f>
         <v>100</v>
       </c>
@@ -1088,33 +1106,33 @@
     </row>
     <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="27"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="27"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="31">
+      <c r="E22" s="36"/>
+      <c r="F22" s="19">
         <f>SUM(F14:F21)</f>
-        <v>1330</v>
+        <v>2560</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="3:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -1177,10 +1195,10 @@
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="11">
         <f>SUM(F24:F26)</f>
         <v>0</v>
@@ -1203,140 +1221,140 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="6">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E29" s="6">
         <v>60</v>
       </c>
       <c r="F29" s="6">
         <f>D29*E29</f>
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E30" s="6">
         <v>60</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ref="F30:F33" si="1">D30*E30</f>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="6">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E31" s="6">
         <v>60</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="1"/>
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="32" t="s">
-        <v>22</v>
+      <c r="C32" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="D32" s="6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E32" s="6">
         <v>60</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>7800</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="32" t="s">
-        <v>34</v>
+      <c r="C33" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E33" s="6">
         <v>60</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="39">
+      <c r="C34" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="41">
         <f>SUM(D29:D33)</f>
-        <v>795</v>
-      </c>
-      <c r="E34" s="40"/>
+        <v>960</v>
+      </c>
+      <c r="E34" s="42"/>
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="3:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13"/>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="26"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="14">
         <f>SUM(F29:F33)</f>
-        <v>47700</v>
+        <v>57600</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="3:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="10"/>
-      <c r="D36" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="31">
+      <c r="D36" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="19">
         <f>SUM(F22,F27,F35)</f>
-        <v>49030</v>
+        <v>60160</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="40" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="16"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
@@ -1349,51 +1367,51 @@
         <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="15">
         <f>$I$10</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="27">
-        <v>250</v>
-      </c>
-      <c r="F44" s="27">
+        <v>4</v>
+      </c>
+      <c r="E44" s="15">
+        <v>150</v>
+      </c>
+      <c r="F44" s="15">
         <f>D44*E44</f>
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="15">
         <v>1</v>
       </c>
-      <c r="E45" s="27">
-        <v>80</v>
-      </c>
-      <c r="F45" s="27">
+      <c r="E45" s="15">
+        <v>150</v>
+      </c>
+      <c r="F45" s="15">
         <f t="shared" ref="F45:F50" si="2">D45*E45</f>
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="15">
         <v>1</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="15">
         <v>100</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="15">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -1402,77 +1420,77 @@
       <c r="C47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="16">
         <f>$I$10</f>
-        <v>2</v>
-      </c>
-      <c r="E47" s="28">
+        <v>4</v>
+      </c>
+      <c r="E47" s="16">
         <v>25</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="15">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="17">
         <v>1</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="17">
         <v>100</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="15">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="30">
+        <v>29</v>
+      </c>
+      <c r="D49" s="18">
         <v>1</v>
       </c>
-      <c r="E49" s="30">
-        <v>1000</v>
-      </c>
-      <c r="F49" s="27">
+      <c r="E49" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="15">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="30">
+        <v>24</v>
+      </c>
+      <c r="D50" s="18">
         <v>1</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="18">
         <v>100</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="15">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="10"/>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="31">
+      <c r="E51" s="36"/>
+      <c r="F51" s="19">
         <f>SUM(F44:F50)</f>
-        <v>1930</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>2</v>
@@ -1501,7 +1519,7 @@
     </row>
     <row r="54" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -1531,10 +1549,10 @@
     </row>
     <row r="56" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="10"/>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="11">
         <f>SUM(F53:F55)</f>
         <v>0</v>
@@ -1554,11 +1572,11 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="6">
@@ -1573,7 +1591,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="6">
@@ -1588,7 +1606,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="6">
@@ -1603,8 +1621,8 @@
       </c>
     </row>
     <row r="61" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="32" t="s">
-        <v>22</v>
+      <c r="C61" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="D61" s="6">
         <v>100</v>
@@ -1618,8 +1636,8 @@
       </c>
     </row>
     <row r="62" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="32" t="s">
-        <v>34</v>
+      <c r="C62" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="D62" s="6">
         <v>25</v>
@@ -1633,389 +1651,817 @@
       </c>
     </row>
     <row r="63" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="13"/>
-      <c r="D63" s="25" t="s">
+      <c r="C63" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="41">
+        <f>SUM(D58:D62)</f>
+        <v>745</v>
+      </c>
+      <c r="E63" s="42"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="13"/>
+      <c r="D64" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="14">
+      <c r="E64" s="40"/>
+      <c r="F64" s="14">
         <f>SUM(F58:F62)</f>
         <v>44700</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="10"/>
-      <c r="D64" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="31">
-        <f>SUM(F51,F56,F63)</f>
-        <v>46630</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="15" t="s">
+    <row r="65" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="10"/>
+      <c r="D65" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="38"/>
+      <c r="F65" s="19">
+        <f>SUM(F51,F56,F64)</f>
+        <v>47350</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="16"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="3:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="2" t="s">
+      <c r="D73" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="30"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+    </row>
+    <row r="75" spans="3:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="27">
-        <f>$I$10</f>
-        <v>2</v>
-      </c>
-      <c r="E75" s="27">
-        <v>250</v>
-      </c>
-      <c r="F75" s="27">
-        <f>D75*E75</f>
-        <v>500</v>
+      <c r="F75" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="27">
-        <v>1</v>
-      </c>
-      <c r="E76" s="27">
-        <v>80</v>
-      </c>
-      <c r="F76" s="27">
-        <f t="shared" ref="F76:F81" si="5">D76*E76</f>
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="D76" s="15">
+        <f>$I$10</f>
+        <v>4</v>
+      </c>
+      <c r="E76" s="15">
+        <v>150</v>
+      </c>
+      <c r="F76" s="15">
+        <f>D76*E76</f>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15">
+        <v>150</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" ref="F77:F82" si="5">D77*E77</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D78" s="15">
         <v>1</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E78" s="15">
         <v>100</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F78" s="15">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="7" t="s">
+    <row r="79" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D79" s="16">
         <f>$I$10</f>
-        <v>2</v>
-      </c>
-      <c r="E78" s="28">
+        <v>4</v>
+      </c>
+      <c r="E79" s="16">
         <v>25</v>
       </c>
-      <c r="F78" s="27">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="29">
-        <v>1</v>
-      </c>
-      <c r="E79" s="29">
-        <v>100</v>
-      </c>
-      <c r="F79" s="27">
+      <c r="F79" s="15">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="30">
+      <c r="C80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="17">
         <v>1</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="17">
+        <v>100</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="18">
+        <v>1</v>
+      </c>
+      <c r="E81" s="18">
         <v>500</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F81" s="15">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="30">
+    <row r="82" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E82" s="18">
         <v>100</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F82" s="15">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="10"/>
-      <c r="D82" s="21" t="s">
+    <row r="83" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="10"/>
+      <c r="D83" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="31">
-        <f>SUM(F75:F81)</f>
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="36"/>
+      <c r="F83" s="19">
+        <f>SUM(F76:F82)</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6">
-        <f>D84*E84</f>
-        <v>0</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D85" s="6">
-        <f>I12</f>
-        <v>8</v>
-      </c>
-      <c r="E85" s="42">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" ref="F85:F86" si="6">D85*E85</f>
-        <v>160</v>
-      </c>
-      <c r="H85" s="43" t="s">
-        <v>43</v>
+        <f>D85*E85</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="6">
+        <f>I12</f>
+        <v>48</v>
+      </c>
+      <c r="E86" s="47">
+        <v>30</v>
+      </c>
+      <c r="F86" s="15">
+        <f>-Sheet2!C13</f>
+        <v>1486.8922003042835</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>1</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>0</v>
       </c>
-      <c r="F86" s="6">
-        <f t="shared" si="6"/>
+      <c r="F87" s="6">
+        <f t="shared" ref="F86:F87" si="6">D87*E87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="10"/>
-      <c r="D87" s="23" t="s">
+    <row r="88" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="10"/>
+      <c r="D88" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="11">
-        <f>SUM(F84:F86)</f>
-        <v>160</v>
-      </c>
-      <c r="H87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="12" t="s">
+      <c r="E88" s="38"/>
+      <c r="F88" s="11">
+        <v>1486.8922003042801</v>
+      </c>
+      <c r="H88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H88" s="41"/>
-    </row>
-    <row r="89" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="32" t="s">
+      <c r="H89" s="27"/>
+    </row>
+    <row r="90" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <v>150</v>
-      </c>
-      <c r="E89" s="6">
-        <v>60</v>
-      </c>
-      <c r="F89" s="6">
-        <f>D89*E89</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="6">
-        <v>100</v>
       </c>
       <c r="E90" s="6">
         <v>60</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" ref="F90:F93" si="7">D90*E90</f>
-        <v>6000</v>
+        <f>D90*E90</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="32" t="s">
-        <v>21</v>
+      <c r="C91" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D91" s="6">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="E91" s="6">
         <v>60</v>
       </c>
       <c r="F91" s="6">
+        <f t="shared" ref="F91:F94" si="7">D91*E91</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="6">
+        <v>370</v>
+      </c>
+      <c r="E92" s="6">
+        <v>60</v>
+      </c>
+      <c r="F92" s="6">
         <f t="shared" si="7"/>
         <v>22200</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="6">
+    <row r="93" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="6">
         <v>100</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E93" s="6">
         <v>60</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="6">
+    <row r="94" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="6">
         <v>25</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E94" s="6">
         <v>60</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="41">
+        <f>SUM(D90:D94)</f>
+        <v>745</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="13"/>
+      <c r="D96" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="40"/>
+      <c r="F96" s="14">
+        <f>SUM(F90:F94)</f>
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="10"/>
+      <c r="D97" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="38"/>
+      <c r="F97" s="19">
+        <f>SUM(F83,F88,F96)</f>
+        <v>47836.892200304283</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="13"/>
-      <c r="D94" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="14">
-        <f>SUM(F89:F93)</f>
-        <v>44700</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="10"/>
-      <c r="D95" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="31">
-        <f>SUM(F82,F87,F94)</f>
-        <v>46290</v>
+      <c r="I100" s="44" t="e">
+        <f>-F83-Sheet1!C11</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:F73"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
+  <mergeCells count="19">
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:F74"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D96:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F86" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB984577-646C-4B2D-8D17-17E5D09DF49A}">
+  <dimension ref="B4:AY13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>17</v>
+      </c>
+      <c r="U5">
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <v>19</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5">
+        <v>21</v>
+      </c>
+      <c r="Y5">
+        <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>23</v>
+      </c>
+      <c r="AA5">
+        <v>24</v>
+      </c>
+      <c r="AB5">
+        <v>25</v>
+      </c>
+      <c r="AC5">
+        <v>26</v>
+      </c>
+      <c r="AD5">
+        <v>27</v>
+      </c>
+      <c r="AE5">
+        <v>28</v>
+      </c>
+      <c r="AF5">
+        <v>29</v>
+      </c>
+      <c r="AG5">
+        <v>30</v>
+      </c>
+      <c r="AH5">
+        <v>31</v>
+      </c>
+      <c r="AI5">
+        <v>32</v>
+      </c>
+      <c r="AJ5">
+        <v>33</v>
+      </c>
+      <c r="AK5">
+        <v>34</v>
+      </c>
+      <c r="AL5">
+        <v>35</v>
+      </c>
+      <c r="AM5">
+        <v>36</v>
+      </c>
+      <c r="AN5">
+        <v>37</v>
+      </c>
+      <c r="AO5">
+        <v>38</v>
+      </c>
+      <c r="AP5">
+        <v>39</v>
+      </c>
+      <c r="AQ5">
+        <v>40</v>
+      </c>
+      <c r="AR5">
+        <v>41</v>
+      </c>
+      <c r="AS5">
+        <v>42</v>
+      </c>
+      <c r="AT5">
+        <v>43</v>
+      </c>
+      <c r="AU5">
+        <v>44</v>
+      </c>
+      <c r="AV5">
+        <v>45</v>
+      </c>
+      <c r="AW5">
+        <v>46</v>
+      </c>
+      <c r="AX5">
+        <v>47</v>
+      </c>
+      <c r="AY5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="C6" s="44">
+        <f>-Sheet1!F88</f>
+        <v>-1486.8922003042801</v>
+      </c>
+      <c r="D6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="E6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="F6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="G6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="H6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="I6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="J6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="K6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="L6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="M6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="N6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="O6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="P6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="Q6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="R6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="S6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="T6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="U6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="V6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="W6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="X6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="Y6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="Z6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AA6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AB6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AC6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AD6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AE6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AF6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AG6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AH6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AI6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AJ6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AK6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AL6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AM6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AN6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AO6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AP6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AQ6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AR6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AS6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AT6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AU6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AV6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AW6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AX6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+      <c r="AY6">
+        <f>-Sheet1!$E$86</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="C7" s="44">
+        <f>Sheet1!F83</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="43">
+        <f>NPV(-0.125%,0,D6:AY6)</f>
+        <v>-1486.8922003042835</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="C13" s="46">
+        <f>C11</f>
+        <v>-1486.8922003042835</v>
+      </c>
+      <c r="D13" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gestion/Proposition.xlsx
+++ b/Gestion/Proposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49137B19-482F-4CE7-A1AC-014B7E7D2FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8408D5AA-C877-4C55-8A23-947BB413D476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">Ordinateur </t>
   </si>
   <si>
-    <t>Routeur/commutateur de réseau</t>
-  </si>
-  <si>
     <t xml:space="preserve">IA serveur local </t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>total VAN($)</t>
+  </si>
+  <si>
+    <t>Router/commutateur de réseau</t>
   </si>
 </sst>
 </file>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930823E5-48B9-4EFD-9FC7-6E627D506754}">
   <dimension ref="C10:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +957,7 @@
   <sheetData>
     <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
@@ -981,13 +981,13 @@
       <c r="F12" s="24"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="16" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="15">
         <f>$I$10/2</f>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="23" spans="3:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6">
         <v>130</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="33" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="6">
         <v>50</v>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="41">
         <f>SUM(D29:D33)</f>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="32"/>
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
     </row>
     <row r="49" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="18">
         <v>1</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="50" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D50" s="18">
         <v>1</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="52" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>2</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="54" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
     </row>
     <row r="61" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="6">
         <v>100</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="62" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C62" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="6">
         <v>25</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="63" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="41">
         <f>SUM(D58:D62)</f>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73" s="31"/>
       <c r="F73" s="32"/>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="82" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D82" s="18">
         <v>1</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="84" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>2</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="86" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="6">
         <f>I12</f>
@@ -1877,7 +1877,7 @@
         <v>1486.8922003042835</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1905,7 +1905,7 @@
         <v>1486.8922003042801</v>
       </c>
       <c r="H88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1970,7 +1970,7 @@
     </row>
     <row r="93" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" s="6">
         <v>100</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="94" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" s="6">
         <v>25</v>
@@ -1998,12 +1998,12 @@
         <v>1500</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C95" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="41">
         <f>SUM(D90:D94)</f>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I100" s="44" t="e">
         <f>-F83-Sheet1!C11</f>
@@ -2088,7 +2088,7 @@
   <sheetData>
     <row r="4" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="43">
         <f>NPV(-0.125%,0,D6:AY6)</f>

--- a/Gestion/Proposition.xlsx
+++ b/Gestion/Proposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8408D5AA-C877-4C55-8A23-947BB413D476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195BAC79-0375-4AEB-A561-092FD3246D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930823E5-48B9-4EFD-9FC7-6E627D506754}">
   <dimension ref="C10:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB984577-646C-4B2D-8D17-17E5D09DF49A}">
   <dimension ref="B4:AY13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gestion/Proposition.xlsx
+++ b/Gestion/Proposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195BAC79-0375-4AEB-A561-092FD3246D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9651CC3-9608-4A0E-84D8-4D3C4E1D1FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
   <si>
     <r>
       <t>Es</t>
@@ -186,6 +186,47 @@
   </si>
   <si>
     <t>Router/commutateur de réseau</t>
+  </si>
+  <si>
+    <r>
+      <t>Es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>timation de concepte</t>
+    </r>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>Drive H-bridge</t>
+  </si>
+  <si>
+    <t>servomoteur frappeur</t>
+  </si>
+  <si>
+    <t>support à caméra</t>
+  </si>
+  <si>
+    <t>Impression des pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrôleurs sans fil </t>
+  </si>
+  <si>
+    <t>quincaillerie</t>
+  </si>
+  <si>
+    <t>Achat de logiciel et services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pile LiPo </t>
   </si>
 </sst>
 </file>
@@ -578,53 +619,53 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930823E5-48B9-4EFD-9FC7-6E627D506754}">
-  <dimension ref="C10:I100"/>
+  <dimension ref="C10:I141"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,10 +1161,10 @@
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="19">
         <f>SUM(F14:F21)</f>
         <v>2560</v>
@@ -1195,10 +1236,10 @@
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="11">
         <f>SUM(F24:F26)</f>
         <v>0</v>
@@ -1307,20 +1348,20 @@
       <c r="C34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="40">
         <f>SUM(D29:D33)</f>
         <v>960</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="3:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13"/>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="14">
         <f>SUM(F29:F33)</f>
         <v>57600</v>
@@ -1329,10 +1370,10 @@
     </row>
     <row r="36" spans="3:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="10"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="19">
         <f>SUM(F22,F27,F35)</f>
         <v>60160</v>
@@ -1341,20 +1382,20 @@
     </row>
     <row r="40" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="30"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
@@ -1479,10 +1520,10 @@
     </row>
     <row r="51" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="10"/>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="36"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="19">
         <f>SUM(F44:F50)</f>
         <v>2650</v>
@@ -1549,10 +1590,10 @@
     </row>
     <row r="56" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="10"/>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="38"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="11">
         <f>SUM(F53:F55)</f>
         <v>0</v>
@@ -1654,19 +1695,19 @@
       <c r="C63" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="40">
         <f>SUM(D58:D62)</f>
         <v>745</v>
       </c>
-      <c r="E63" s="42"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="13"/>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="40"/>
+      <c r="E64" s="39"/>
       <c r="F64" s="14">
         <f>SUM(F58:F62)</f>
         <v>44700</v>
@@ -1674,10 +1715,10 @@
     </row>
     <row r="65" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="10"/>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="38"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="19">
         <f>SUM(F51,F56,F64)</f>
         <v>47350</v>
@@ -1685,20 +1726,20 @@
     </row>
     <row r="72" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
     </row>
     <row r="74" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="30"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="47"/>
     </row>
     <row r="75" spans="3:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
@@ -1823,10 +1864,10 @@
     </row>
     <row r="83" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83" s="10"/>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="36"/>
+      <c r="E83" s="35"/>
       <c r="F83" s="19">
         <f>SUM(F76:F82)</f>
         <v>1650</v>
@@ -1869,12 +1910,12 @@
         <f>I12</f>
         <v>48</v>
       </c>
-      <c r="E86" s="47">
-        <v>30</v>
+      <c r="E86" s="33">
+        <v>130</v>
       </c>
       <c r="F86" s="15">
         <f>-Sheet2!C13</f>
-        <v>1486.8922003042835</v>
+        <v>6443.1995346518943</v>
       </c>
       <c r="H86" s="28" t="s">
         <v>40</v>
@@ -1891,18 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" ref="F86:F87" si="6">D87*E87</f>
+        <f t="shared" ref="F87" si="6">D87*E87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="10"/>
-      <c r="D88" s="37" t="s">
+      <c r="D88" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="38"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="11">
-        <v>1486.8922003042801</v>
+        <f>SUM(F85:F87)</f>
+        <v>6443.1995346518943</v>
       </c>
       <c r="H88" t="s">
         <v>37</v>
@@ -2005,19 +2047,19 @@
       <c r="C95" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="41">
+      <c r="D95" s="40">
         <f>SUM(D90:D94)</f>
         <v>745</v>
       </c>
-      <c r="E95" s="42"/>
+      <c r="E95" s="41"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="13"/>
-      <c r="D96" s="39" t="s">
+      <c r="D96" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="40"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="14">
         <f>SUM(F90:F94)</f>
         <v>44700</v>
@@ -2025,31 +2067,479 @@
     </row>
     <row r="97" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="10"/>
-      <c r="D97" s="37" t="s">
+      <c r="D97" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="38"/>
+      <c r="E97" s="37"/>
       <c r="F97" s="19">
         <f>SUM(F83,F88,F96)</f>
-        <v>47836.892200304283</v>
+        <v>52793.199534651896</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
         <v>41</v>
       </c>
-      <c r="I100" s="44" t="e">
+      <c r="I100" s="30" t="e">
         <f>-F83-Sheet1!C11</f>
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="109" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="44"/>
+      <c r="F110" s="45"/>
+    </row>
+    <row r="111" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="43"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="47"/>
+    </row>
+    <row r="112" spans="3:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="15">
+        <f>$I$10</f>
+        <v>4</v>
+      </c>
+      <c r="E113" s="15">
+        <v>40</v>
+      </c>
+      <c r="F113" s="15">
+        <f>D113*E113</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="15">
+        <v>1</v>
+      </c>
+      <c r="E114" s="15">
+        <v>150</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" ref="F114:F126" si="8">D114*E114</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="15">
+        <v>1</v>
+      </c>
+      <c r="E115" s="15">
+        <v>100</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="16">
+        <f>$I$10</f>
+        <v>4</v>
+      </c>
+      <c r="E116" s="16">
+        <v>25</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="17">
+        <v>1</v>
+      </c>
+      <c r="E117" s="17">
+        <v>200</v>
+      </c>
+      <c r="F117" s="15">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="18">
+        <v>1</v>
+      </c>
+      <c r="E118" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F118" s="15">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="18">
+        <v>4</v>
+      </c>
+      <c r="E119" s="18">
+        <v>15</v>
+      </c>
+      <c r="F119" s="15">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="18">
+        <v>4</v>
+      </c>
+      <c r="E120" s="18">
+        <v>5</v>
+      </c>
+      <c r="F120" s="15">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="18">
+        <v>4</v>
+      </c>
+      <c r="E121" s="18">
+        <v>10</v>
+      </c>
+      <c r="F121" s="15">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" s="18">
+        <v>2</v>
+      </c>
+      <c r="E122" s="18">
+        <v>65</v>
+      </c>
+      <c r="F122" s="15">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="18">
+        <v>4</v>
+      </c>
+      <c r="E123" s="18">
+        <v>25</v>
+      </c>
+      <c r="F123" s="15">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="18">
+        <v>1</v>
+      </c>
+      <c r="E124" s="18">
+        <v>200</v>
+      </c>
+      <c r="F124" s="15">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="18">
+        <v>1</v>
+      </c>
+      <c r="E125" s="18">
+        <v>50</v>
+      </c>
+      <c r="F125" s="15">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" s="18">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18">
+        <v>100</v>
+      </c>
+      <c r="F126" s="15">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="10"/>
+      <c r="D127" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="35"/>
+      <c r="F127" s="19">
+        <f>SUM(F113:F126)</f>
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0</v>
+      </c>
+      <c r="F129" s="6">
+        <f>D129*E129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" ref="F130:F131" si="9">D130*E130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="10"/>
+      <c r="D132" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="37"/>
+      <c r="F132" s="11">
+        <f>SUM(F129:F131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="6">
+        <v>150</v>
+      </c>
+      <c r="E134" s="6">
+        <v>60</v>
+      </c>
+      <c r="F134" s="6">
+        <f>D134*E134</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="6">
+        <v>100</v>
+      </c>
+      <c r="E135" s="6">
+        <v>60</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" ref="F135:F138" si="10">D135*E135</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="6">
+        <v>370</v>
+      </c>
+      <c r="E136" s="6">
+        <v>60</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="10"/>
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="6">
+        <v>100</v>
+      </c>
+      <c r="E137" s="6">
+        <v>60</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="6">
+        <v>25</v>
+      </c>
+      <c r="E138" s="6">
+        <v>60</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="40">
+        <f>SUM(D134:D138)</f>
+        <v>745</v>
+      </c>
+      <c r="E139" s="41"/>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="13"/>
+      <c r="D140" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="39"/>
+      <c r="F140" s="14">
+        <f>SUM(F134:F138)</f>
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="10"/>
+      <c r="D141" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="37"/>
+      <c r="F141" s="19">
+        <f>SUM(F127,F132,F140)</f>
+        <v>47610</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D34:E34"/>
+  <mergeCells count="26">
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:F111"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D139:E139"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:F42"/>
@@ -2064,6 +2554,11 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2077,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB984577-646C-4B2D-8D17-17E5D09DF49A}">
   <dimension ref="B4:AY13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,205 +2736,157 @@
       </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C6" s="44">
+      <c r="C6" s="30">
         <f>-Sheet1!F88</f>
-        <v>-1486.8922003042801</v>
+        <v>-6443.1995346518943</v>
       </c>
       <c r="D6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="E6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="F6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="G6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="H6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="I6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="J6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="K6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="L6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="M6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="N6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="O6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="P6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="Q6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="R6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="S6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="T6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="U6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="V6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="W6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="X6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="Y6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="Z6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AA6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AB6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AC6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AD6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AE6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AF6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AG6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AH6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AI6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AJ6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AK6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AL6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AM6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AN6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AO6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AP6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AQ6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AR6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AS6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AT6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AU6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AV6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AW6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AX6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
       <c r="AY6">
-        <f>-Sheet1!$E$86</f>
-        <v>-30</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C7" s="44">
+      <c r="C7" s="30">
         <f>Sheet1!F83</f>
         <v>1650</v>
       </c>
@@ -2448,17 +2895,17 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="29">
         <f>NPV(-0.125%,0,D6:AY6)</f>
-        <v>-1486.8922003042835</v>
+        <v>-6443.1995346518943</v>
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C13" s="46">
+      <c r="C13" s="32">
         <f>C11</f>
-        <v>-1486.8922003042835</v>
-      </c>
-      <c r="D13" s="45"/>
+        <v>-6443.1995346518943</v>
+      </c>
+      <c r="D13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
